--- a/data/metadata/Informe-05-050317-TC-TP.xlsx
+++ b/data/metadata/Informe-05-050317-TC-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
   <si>
     <t>temporalidad</t>
   </si>
@@ -58,10 +58,10 @@
     <t>comarca-nombre</t>
   </si>
   <si>
-    <t>iaest-dimension:temporalidad</t>
-  </si>
-  <si>
-    <t>iaest-dimension:cif</t>
+    <t>iaest-measure:temporalidad</t>
+  </si>
+  <si>
+    <t>iaest-measure:cif</t>
   </si>
   <si>
     <t>sdmx-dimension:refPeriod</t>
@@ -79,10 +79,10 @@
     <t>iaest-measure:mes-y-ano</t>
   </si>
   <si>
-    <t>iaest-dimension:mes-nombre</t>
-  </si>
-  <si>
-    <t>iaest-dimension:dias-duracion-contrato</t>
+    <t>iaest-measure:mes-nombre</t>
+  </si>
+  <si>
+    <t>iaest-measure:dias-duracion-contrato</t>
   </si>
   <si>
     <t>iaest-measure:duracion-contrato-*-100--numero-de-contratos</t>
@@ -91,43 +91,28 @@
     <t>sdmx-dimension:refArea</t>
   </si>
   <si>
-    <t>iaest-dimension:sexo</t>
+    <t>iaest-measure:sexo</t>
+  </si>
+  <si>
+    <t>medida</t>
   </si>
   <si>
     <t>dim</t>
   </si>
   <si>
-    <t>medida</t>
+    <t>xsd:int</t>
   </si>
   <si>
     <t>skos:Concept</t>
   </si>
   <si>
-    <t>xsd:int</t>
-  </si>
-  <si>
     <t>URI-Provincia</t>
   </si>
   <si>
     <t>URI-comarca</t>
   </si>
   <si>
-    <t>mapping-temporalidad.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-cif.xlsx</t>
-  </si>
-  <si>
     <t>mapping-ano.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-mes-nombre.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-dias-duracion-contrato.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-sexo.xlsx</t>
   </si>
 </sst>
 </file>
@@ -289,43 +274,43 @@
         <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="N3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4">
@@ -336,13 +321,13 @@
         <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>20</v>
@@ -351,7 +336,7 @@
         <v>20</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>29</v>
@@ -363,7 +348,7 @@
         <v>29</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>31</v>
@@ -376,23 +361,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-05-050317-TC-TP.xlsx
+++ b/data/metadata/Informe-05-050317-TC-TP.xlsx
@@ -11,105 +11,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
-  <si>
-    <t>temporalidad</t>
-  </si>
-  <si>
-    <t>cif</t>
-  </si>
-  <si>
-    <t>ano</t>
-  </si>
-  <si>
-    <t>numero-de-contratos</t>
-  </si>
-  <si>
-    <t>duracion-contrato</t>
-  </si>
-  <si>
-    <t>comarca-codigo</t>
-  </si>
-  <si>
-    <t>provincia-codigo</t>
-  </si>
-  <si>
-    <t>mes-y-ano</t>
-  </si>
-  <si>
-    <t>mes-nombre</t>
-  </si>
-  <si>
-    <t>mes-codigo</t>
-  </si>
-  <si>
-    <t>dias-duracion-contrato</t>
-  </si>
-  <si>
-    <t>duracion-contrato-*-100--numero-de-contratos</t>
-  </si>
-  <si>
-    <t>provincia-nombre</t>
-  </si>
-  <si>
-    <t>sexo</t>
-  </si>
-  <si>
-    <t>comarca-nombre</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
+  <si>
+    <t>Mes (código)</t>
+  </si>
+  <si>
+    <t>CIF</t>
+  </si>
+  <si>
+    <t>Mes nombre</t>
+  </si>
+  <si>
+    <t>Comarca código</t>
+  </si>
+  <si>
+    <t>Temporalidad</t>
+  </si>
+  <si>
+    <t>Número de contratos</t>
+  </si>
+  <si>
+    <t>Duración contrato</t>
+  </si>
+  <si>
+    <t>Provincia nombre</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Comarca nombre</t>
+  </si>
+  <si>
+    <t>Días duración contrato</t>
+  </si>
+  <si>
+    <t>Provincia código</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Duración contrato * 1.00 / Número de contratos</t>
+  </si>
+  <si>
+    <t>Mes y año</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>iaest-measure:cif</t>
+  </si>
+  <si>
+    <t>iaest-measure:mes-nombre</t>
   </si>
   <si>
     <t>iaest-measure:temporalidad</t>
   </si>
   <si>
-    <t>iaest-measure:cif</t>
+    <t>iaest-measure:numero-de-contratos</t>
+  </si>
+  <si>
+    <t>iaest-measure:duracion-contrato</t>
+  </si>
+  <si>
+    <t>sdmx-dimension:refArea</t>
+  </si>
+  <si>
+    <t>iaest-measure:sexo</t>
+  </si>
+  <si>
+    <t>iaest-measure:dias-duracion-contrato</t>
   </si>
   <si>
     <t>sdmx-dimension:refPeriod</t>
   </si>
   <si>
-    <t>iaest-measure:numero-de-contratos</t>
-  </si>
-  <si>
-    <t>iaest-measure:duracion-contrato</t>
-  </si>
-  <si>
-    <t>null</t>
+    <t>iaest-measure:duracion-contrato--100--numero-de-contratos</t>
   </si>
   <si>
     <t>iaest-measure:mes-y-ano</t>
   </si>
   <si>
-    <t>iaest-measure:mes-nombre</t>
-  </si>
-  <si>
-    <t>iaest-measure:dias-duracion-contrato</t>
-  </si>
-  <si>
-    <t>iaest-measure:duracion-contrato-*-100--numero-de-contratos</t>
-  </si>
-  <si>
-    <t>sdmx-dimension:refArea</t>
-  </si>
-  <si>
-    <t>iaest-measure:sexo</t>
-  </si>
-  <si>
     <t>medida</t>
   </si>
   <si>
     <t>dim</t>
   </si>
   <si>
+    <t>xsd:string</t>
+  </si>
+  <si>
     <t>xsd:int</t>
   </si>
   <si>
-    <t>skos:Concept</t>
-  </si>
-  <si>
     <t>URI-Provincia</t>
   </si>
   <si>
     <t>URI-comarca</t>
+  </si>
+  <si>
+    <t>xsd:date</t>
+  </si>
+  <si>
+    <t>xsd:double</t>
   </si>
   <si>
     <t>mapping-ano.xlsx</t>
@@ -230,13 +236,13 @@
         <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>20</v>
@@ -248,60 +254,60 @@
         <v>22</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="I3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>28</v>
@@ -310,59 +316,59 @@
         <v>27</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
-      <c r="C5" s="1" t="s">
-        <v>33</v>
+      <c r="M5" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-05-050317-TC-TP.xlsx
+++ b/data/metadata/Informe-05-050317-TC-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
   <si>
     <t>Mes (código)</t>
   </si>
@@ -58,6 +58,51 @@
     <t>Mes y año</t>
   </si>
   <si>
+    <t>mes-codigo</t>
+  </si>
+  <si>
+    <t>cif</t>
+  </si>
+  <si>
+    <t>mes-nombre</t>
+  </si>
+  <si>
+    <t>comarca-codigo</t>
+  </si>
+  <si>
+    <t>temporalidad</t>
+  </si>
+  <si>
+    <t>numero-de-contratos</t>
+  </si>
+  <si>
+    <t>duracion-contrato</t>
+  </si>
+  <si>
+    <t>provincia-nombre</t>
+  </si>
+  <si>
+    <t>sexo</t>
+  </si>
+  <si>
+    <t>comarca-nombre</t>
+  </si>
+  <si>
+    <t>dias-duracion-contrato</t>
+  </si>
+  <si>
+    <t>provincia-codigo</t>
+  </si>
+  <si>
+    <t>ano</t>
+  </si>
+  <si>
+    <t>duracion-contrato--100--numero-de-contratos</t>
+  </si>
+  <si>
+    <t>mes-y-ano</t>
+  </si>
+  <si>
     <t>null</t>
   </si>
   <si>
@@ -116,9 +161,6 @@
   </si>
   <si>
     <t>xsd:double</t>
-  </si>
-  <si>
-    <t>mapping-ano.xlsx</t>
   </si>
 </sst>
 </file>
@@ -236,139 +278,181 @@
         <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="M5" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
